--- a/data/05_input/zm.cg20a2.xlsx
+++ b/data/05_input/zm.cg20a2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/7B15A867-3C62-4065-9070-26A545D19650/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/Zmays_B73/05_excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/A957B23C-3D71-4C74-B3AB-FF745FB67040/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/05_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B94812-56BC-ED4C-ACE1-170A1EAB5B26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE633EDC-3777-364E-85D6-464C894C1612}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13540" yWindow="11540" windowWidth="17780" windowHeight="14280" xr2:uid="{67760308-83C7-244E-9309-67C566F6D356}"/>
+    <workbookView xWindow="13540" yWindow="6720" windowWidth="17780" windowHeight="14280" xr2:uid="{67760308-83C7-244E-9309-67C566F6D356}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,15 +64,6 @@
     <t>SE</t>
   </si>
   <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/cage/nanopore_BxM/B73Mo17_shoot_NP1.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/cage/nanopore_BxM/B73Mo17_shoot_NP2.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/cage/nanopore_BxM/B73Mo17_shoot_NP3.fastq.gz</t>
-  </si>
-  <si>
     <t>s71</t>
   </si>
   <si>
@@ -80,6 +71,15 @@
   </si>
   <si>
     <t>s73</t>
+  </si>
+  <si>
+    <t>B73Mo17_shoot_NP1.fastq.gz</t>
+  </si>
+  <si>
+    <t>B73Mo17_shoot_NP2.fastq.gz</t>
+  </si>
+  <si>
+    <t>B73Mo17_shoot_NP3.fastq.gz</t>
   </si>
 </sst>
 </file>
@@ -441,7 +441,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -482,7 +482,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -497,12 +497,12 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -517,12 +517,12 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -537,7 +537,7 @@
         <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
